--- a/outputs/autoaprop.xlsx/autoapropxlsx/ISF_PLJ.XLSX
+++ b/outputs/autoaprop.xlsx/autoapropxlsx/ISF_PLJ.XLSX
@@ -136,10 +136,10 @@
     <t>LUIS ANTONIO DE SOUSA</t>
   </si>
   <si>
-    <t>SAMUEL SOARES QUEIROZ</t>
+    <t>JOSÉ HENRIQUE PESSANHA CHAGAS</t>
   </si>
   <si>
-    <t>JOSÉ HENRIQUE PESSANHA CHAGAS</t>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -154,10 +154,10 @@
     <t>2824</t>
   </si>
   <si>
-    <t>3695</t>
+    <t>3827</t>
   </si>
   <si>
-    <t>3827</t>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3528,11 +3528,11 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>SAMUEL SOARES QUEIROZ</v>
+        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
+        <v> </v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
@@ -3555,11 +3555,11 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>SAMUEL SOARES QUEIROZ</v>
+        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
+        <v> </v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
@@ -3579,11 +3579,11 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>SAMUEL SOARES QUEIROZ</v>
+        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
+        <v> </v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3603,11 +3603,11 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>SAMUEL SOARES QUEIROZ</v>
+        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
+        <v> </v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3908,11 +3908,11 @@
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3695</v>
+        <v>3827</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3827</v>
+        <v> </v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
@@ -3935,11 +3935,11 @@
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3695</v>
+        <v>3827</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3827</v>
+        <v> </v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
@@ -3959,11 +3959,11 @@
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3695</v>
+        <v>3827</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3827</v>
+        <v> </v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3983,11 +3983,11 @@
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3695</v>
+        <v>3827</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3827</v>
+        <v> </v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6613,11 +6613,11 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>SAMUEL SOARES QUEIROZ</v>
+        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
+        <v> </v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6638,11 +6638,11 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>SAMUEL SOARES QUEIROZ</v>
+        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>JOSÉ HENRIQUE PESSANHA CHAGAS</v>
+        <v> </v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6945,11 +6945,11 @@
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3695</v>
+        <v>3827</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3827</v>
+        <v> </v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
@@ -6970,11 +6970,11 @@
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3695</v>
+        <v>3827</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3827</v>
+        <v> </v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
